--- a/data/state_of_tasks.xlsx
+++ b/data/state_of_tasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeetRaju\Desktop\SPLDash - Copy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeetRaju\Desktop\GitHub\Dash\SPLDash_v1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3EF783-5F43-4A15-9B36-47624C3A5FA5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD875BE-3842-4DFA-A86F-287FDB26C19E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37260" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="state_of_tasks" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>State</t>
   </si>
@@ -104,6 +104,21 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Kommentti</t>
+  </si>
+  <si>
+    <t>Ei kommenttia</t>
+  </si>
+  <si>
+    <t>Tämä tehtävä epäonnistui</t>
+  </si>
+  <si>
+    <t>Tämä tehtävä ei edennyt suunnitellusti, koska …</t>
+  </si>
+  <si>
+    <t>Tämä tehtävä ei ole vielä alkanut.</t>
   </si>
 </sst>
 </file>
@@ -945,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B16"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,7 +973,7 @@
     <col min="4" max="4" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -977,8 +992,11 @@
       <c r="G1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -997,8 +1015,11 @@
       <c r="G2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1017,8 +1038,11 @@
       <c r="G3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1037,8 +1061,11 @@
       <c r="G4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1057,8 +1084,11 @@
       <c r="G5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0.5</v>
       </c>
@@ -1077,8 +1107,11 @@
       <c r="G6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0.5</v>
       </c>
@@ -1097,8 +1130,11 @@
       <c r="G7">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1117,8 +1153,11 @@
       <c r="G8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1137,8 +1176,11 @@
       <c r="G9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0.5</v>
       </c>
@@ -1157,8 +1199,11 @@
       <c r="G10">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1177,8 +1222,11 @@
       <c r="G11">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1197,8 +1245,11 @@
       <c r="G12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1217,8 +1268,11 @@
       <c r="G13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1237,8 +1291,11 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1257,8 +1314,11 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1277,8 +1337,12 @@
       <c r="G16">
         <v>0</v>
       </c>
+      <c r="H16" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>